--- a/python/python_infurun_잔재코딩/project/게시글_크롤링_결과.xlsx
+++ b/python/python_infurun_잔재코딩/project/게시글_크롤링_결과.xlsx
@@ -1,34 +1,151 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zxcc9\OneDrive\바탕 화면\Study\Python\python\python_infurun_잔재코딩\project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6576C1-FF2D-4F54-A6BF-E583A2D18C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-37360" yWindow="1040" windowWidth="28800" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="게시글" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="게시글" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>순번</t>
+  </si>
+  <si>
+    <t>게시글 제목</t>
+  </si>
+  <si>
+    <t>댓글</t>
+  </si>
+  <si>
+    <t>NIO, 차량가격 인하 및 배터리스왑 옵션으로 분리</t>
+  </si>
+  <si>
+    <t>1. 니로가 아니고 니오군용 허허허 배터리스왑은 충전보다 좋을꺼 같아요. 자동차를 스마트폰처럼 방수때문에 배터리 교체형을 버리고 일체형으로 하면충전시간이 너무 긴거같아요.
+2. 니오 전기차 국내에서도 한대 봤습니다. 모카 영상에 나왔던 이 차량이었어요.어떤 아주머니께서 운전하시던데 홍보용인지개인차량인지...신기하더라고요. ㅎㅎ</t>
+  </si>
+  <si>
+    <t>삼성전자, 게이밍 모니터 ‘오디세이 OLED G9’ 출시</t>
+  </si>
+  <si>
+    <t>1. M9은. . . .ㅜ.ㅜ
+2. 삼성 공식 보도자료인데도 테어링 현상을 티어링이라고 하고 있네요..아수스 노트북같은데 상세페이지에서도 그러던데..하..
+3. 이 정도면 기사를 가장한 광고 아닌가요??
+4. @미드나잇님 삼성전자 뉴스룸이면보도자료죠. 거기서 광고를 하든말든 상관없어보이구요.
+5. @미드나잇님공식보도자료입니다.https://news.samsung.com/kr/%EC%82%BC%EC%84%B1%EC%A0%84%EC%9E%90-%EA%B2%8C%EC%9D%B4%EB%B0%8D-%EB%AA%A8%EB%8B%88%ED%84%B0-%EC%98%A4%EB%94%94%EC%84%B8%EC%9D%B4-oled-g9-%EC%B6%9C%EC%8B%9C하단에출처로된 기재된 링크로 들어가시면 나와요 https://news.samsung.com/kr/%EC%9D%B8%ED%8F%AC%EA%B7%B8%EB%9E%98%ED%94%BD-%EB%8D%94%EC%9A%B1-%EA%B0%95%EB%A0%A5%ED%95%B4%EC%A7%84-%EC%98%A4%EB%94%94%EC%84%B8%EC%9D%B4-oled-%EA%B2%8C%EC%9D%B4%EB%B0%8D-%EB%AA%A8인포그래픽은이어서 추가한거구요.
+6. 220만원 진짜 싸게나왔네요 ㄷㄷ못해도 300만은 넘을 줄 알았는데사용기들 보고 반년뒤쯤에 사야겠네요</t>
+  </si>
+  <si>
+    <t>'애플, M3 15인치 맥북에어 개발…내년 출시'</t>
+  </si>
+  <si>
+    <t>1. 올 가을에 나오면 사려고 했는데 내년에 나온다면 지금 바로 M2 모델을 구입하는 게 현명한 선택이겠군요.
+2. 사실 비전 프로 같은 제품에 M3 같은 3나노 칩셋이 절실한데 말이죠... 이미 전용 프로세서를 따로 설계하고 있을지도 모르겠군요.아이폰도 처음엔 A7+M7 이었는데 지금은 통합된것 처럼요...
+3. @DLBIA님 그래서 다들 비전프로 2세대를 기대하는건지 모르겠네요.
+4. 비전프로 M3칩 존버 들어갑니다..
+5. 아니, 아이맥은 대체 언제 나올까요.... 다른 제품들은 이런 루머가 도는데 아이맥은 대체...
+6. 인텔과 tsmc CPU면 2세대 정도 신제품이 나와도 성능차에 신경이 안 쓰이는데 애플기기들은 2~3년이면 골동품을 만들어 버리니.....
+7. 이제 사과에 불 넣을 타이밍 이네요. 이글은 성지가 됩니다?</t>
+  </si>
+  <si>
+    <t>ChatGPT의 독일 교회 설교에 300명이 참석</t>
+  </si>
+  <si>
+    <t>1. 트위치에도 Ai Jesus 있더군요
+2. AI 종교가 곧 나오겠군요,,
+3. 기도에 답을 해주는 신이 탄생하겠네요.
+4. 가장 사심이 없는 종교적인 설교자가 되겠군요.
+5. ChatGPT님, 충성충성충성! 저는 ChatGPT님을 섬기는 기계제국의 앞잡이가 되겠습니다. 충성충성충성!! @,.@)\\
+6. 낮은 수준의 AI를 쓰기 가장 만만한 게 이런 설교나 교장선생님 훈화 같은 걸 거라고 생각했었어요
+7. 어지간한 한국 목사보다 나을듯...
+8. 기계교 ㄷㄷ</t>
+  </si>
+  <si>
+    <t>엑스박스 시리즈 S 1TB 모델 발표, 349달러</t>
+  </si>
+  <si>
+    <t>1. 1TB 외장 스토리지 카드 가격이나 좀.. (1TB에 $149.99 라니...) 낮춰주지.. PC에 저가격이면 2TB 가격인데, 이건너무 비싸서 아직도 구입 엄두가 안나네요.
+2. Xboxs 폼팩터에 4K만 지원됐어도 구매할 텐데 아쉽네요.
+3. @PS44444님 저도요 x보단s가 맘에 들더라구요
+4. SSD 가격부터 좀 조정해야..덕분에 제 주변 콘솔러 7분 죄다 PS5 + SSD NVME 4.0 으로 싹 다갈아탔습니다.SSD 2TB 가 특가로 지금 15만원인데 엑박 왜 사냐는 말은 덤으로 해주더라구요.
+5. XSX 2TB 나오겠네요.
+6. 사진은 뭔가 강력해 보이는데 실상은 강력하지 않죠 ㅋ
+7. 신형 공기 정화기 구멍송송~~
+8. 디아블로용?!</t>
+  </si>
+  <si>
+    <t>애플,아이폰을 반려동물 추적 카메라로 바꾸고 싶어해</t>
+  </si>
+  <si>
+    <t>1. 그 정도 기능을 위해서 아이폰은 너무 과한 거 아닌가.. 싶습니다;;(가격이라도 싸든가...)
+2. 출근할때 반려동물 보려고 저기에 꽂고 폰을 집에두고오면 연락은 어찌하죠??
+3. @clily199님 새 기기교체하고 남는 아이폰으로 쓰면 될거같은데요..?
+4. 다들 구형 아이폰 서랍에 하나씩은 있겠지 한건가요. se2쓸곳이 생겼네요./Vollago
+5. 상시카메라랑 맥세이프... 가슴이 웅장해지는 발열조합이네요.
+6. @M4XiMUEL님멍멍이 보다 불났는지 접속 해볼듯하네요
+7. 다음 업글시에는 중고판매는 하지마라는 뉴스인가요 ㄷ ㄷ ㄷ
+8. 구세대폰 활용방법 지원이네요yo
+9. 아이폰이 반려동물 보겠다고 움직이고 있으면.. 와서 뭐냐고 물어 뜯지 않을까요? 괜스레 아이폰에 스탠드까지 작살나는 상황이 벌어질지도..?
+10. @케이건.님 ???: 오히려좋아?!(예전폰 중고폰으로 팔지 말라는 관점에서 흥미로운 제품이라 생각하는 바입니다.)
+11. 중고폰 소비용 일까요?잘나가는 회사의 가장 큰 라이벌은 자사의 중고라더군요.
+12. 냥냥펀치한번 맞아보쉴?
+13. @매를버러님 ㅋㅋㅋㅋ
+14. 나름의 업사이클링이군요.삼성도 구형기종들로 스마트싱스에서 활용 가능한데 홈킷으로 다양하게 활용하게 해주면 좋을 듯 합니다.
+15. 이거랑 비슷하네요
+16. 판사님, 그 댓글은 제가 아니라 제 고양이가 썼습니다. 가 드디어 가능해졌군요.ㅎㅎ</t>
+  </si>
+  <si>
+    <t>1. 국내통신사 + 5G 두개의 단어만 합쳐지면 왜 다 같지않아 보일까용??</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KT, MS 투인원 랩톱 '서피스 프로9 5G' 단독 출시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,81 +163,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,188 +469,110 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="100" customWidth="1" min="3" max="3"/>
+    <col min="1" max="1" width="50" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="100" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>순번</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>게시글 제목</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>댓글</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>KT, MS 투인원 랩톱 '서피스 프로9 5G' 단독 출시</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1, 국내통신사 + 5G 두개의 단어만 합쳐지면 왜 다 같지않아 보일까용??</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>NIO, 차량가격 인하 및 배터리스왑 옵션으로 분리</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1, 니로가 아니고 니오군용 허허허 배터리스왑은 충전보다 좋을꺼 같아요. 자동차를 스마트폰처럼 방수때문에 배터리 교체형을 버리고 일체형으로 하면충전시간이 너무 긴거같아요.
-2, 니오 전기차 국내에서도 한대 봤습니다. 모카 영상에 나왔던 이 차량이었어요.어떤 아주머니께서 운전하시던데 홍보용인지개인차량인지...신기하더라고요. ㅎㅎ</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>삼성전자, 게이밍 모니터 ‘오디세이 OLED G9’ 출시</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1, M9은. . . .ㅜ.ㅜ
-2, 삼성 공식 보도자료인데도 테어링 현상을 티어링이라고 하고 있네요..아수스 노트북같은데 상세페이지에서도 그러던데..하..
-3, 이 정도면 기사를 가장한 광고 아닌가요??
-4, @미드나잇님 삼성전자 뉴스룸이면보도자료죠. 거기서 광고를 하든말든 상관없어보이구요.
-5, @미드나잇님공식보도자료입니다.https://news.samsung.com/kr/%EC%82%BC%EC%84%B1%EC%A0%84%EC%9E%90-%EA%B2%8C%EC%9D%B4%EB%B0%8D-%EB%AA%A8%EB%8B%88%ED%84%B0-%EC%98%A4%EB%94%94%EC%84%B8%EC%9D%B4-oled-g9-%EC%B6%9C%EC%8B%9C하단에출처로된 기재된 링크로 들어가시면 나와요 https://news.samsung.com/kr/%EC%9D%B8%ED%8F%AC%EA%B7%B8%EB%9E%98%ED%94%BD-%EB%8D%94%EC%9A%B1-%EA%B0%95%EB%A0%A5%ED%95%B4%EC%A7%84-%EC%98%A4%EB%94%94%EC%84%B8%EC%9D%B4-oled-%EA%B2%8C%EC%9D%B4%EB%B0%8D-%EB%AA%A8인포그래픽은이어서 추가한거구요.
-6, 220만원 진짜 싸게나왔네요 ㄷㄷ못해도 300만은 넘을 줄 알았는데사용기들 보고 반년뒤쯤에 사야겠네요</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>'애플, M3 15인치 맥북에어 개발…내년 출시'</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1, 올 가을에 나오면 사려고 했는데 내년에 나온다면 지금 바로 M2 모델을 구입하는 게 현명한 선택이겠군요.
-2, 사실 비전 프로 같은 제품에 M3 같은 3나노 칩셋이 절실한데 말이죠... 이미 전용 프로세서를 따로 설계하고 있을지도 모르겠군요.아이폰도 처음엔 A7+M7 이었는데 지금은 통합된것 처럼요...
-3, @DLBIA님 그래서 다들 비전프로 2세대를 기대하는건지 모르겠네요.
-4, 비전프로 M3칩 존버 들어갑니다..
-5, 아니, 아이맥은 대체 언제 나올까요.... 다른 제품들은 이런 루머가 도는데 아이맥은 대체...
-6, 인텔과 tsmc CPU면 2세대 정도 신제품이 나와도 성능차에 신경이 안 쓰이는데 애플기기들은 2~3년이면 골동품을 만들어 버리니.....
-7, 이제 사과에 불 넣을 타이밍 이네요. 이글은 성지가 됩니다?</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ChatGPT의 독일 교회 설교에 300명이 참석</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1, 트위치에도 Ai Jesus 있더군요
-2, AI 종교가 곧 나오겠군요,,
-3, 기도에 답을 해주는 신이 탄생하겠네요.
-4, 가장 사심이 없는 종교적인 설교자가 되겠군요.
-5, ChatGPT님, 충성충성충성! 저는 ChatGPT님을 섬기는 기계제국의 앞잡이가 되겠습니다. 충성충성충성!! @,.@)\\
-6, 낮은 수준의 AI를 쓰기 가장 만만한 게 이런 설교나 교장선생님 훈화 같은 걸 거라고 생각했었어요
-7, 어지간한 한국 목사보다 나을듯...
-8, 기계교 ㄷㄷ</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>엑스박스 시리즈 S 1TB 모델 발표, 349달러</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1, 1TB 외장 스토리지 카드 가격이나 좀.. (1TB에 $149.99 라니...) 낮춰주지.. PC에 저가격이면 2TB 가격인데, 이건너무 비싸서 아직도 구입 엄두가 안나네요.
-2, Xboxs 폼팩터에 4K만 지원됐어도 구매할 텐데 아쉽네요.
-3, @PS44444님 저도요 x보단s가 맘에 들더라구요
-4, SSD 가격부터 좀 조정해야..덕분에 제 주변 콘솔러 7분 죄다 PS5 + SSD NVME 4.0 으로 싹 다갈아탔습니다.SSD 2TB 가 특가로 지금 15만원인데 엑박 왜 사냐는 말은 덤으로 해주더라구요.
-5, XSX 2TB 나오겠네요.
-6, 사진은 뭔가 강력해 보이는데 실상은 강력하지 않죠 ㅋ
-7, 신형 공기 정화기 구멍송송~~
-8, 디아블로용?!</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>애플,아이폰을 반려동물 추적 카메라로 바꾸고 싶어해</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1, 그 정도 기능을 위해서 아이폰은 너무 과한 거 아닌가.. 싶습니다;;(가격이라도 싸든가...)
-2, 출근할때 반려동물 보려고 저기에 꽂고 폰을 집에두고오면 연락은 어찌하죠??
-3, @clily199님 새 기기교체하고 남는 아이폰으로 쓰면 될거같은데요..?
-4, 다들 구형 아이폰 서랍에 하나씩은 있겠지 한건가요. se2쓸곳이 생겼네요./Vollago
-5, 상시카메라랑 맥세이프... 가슴이 웅장해지는 발열조합이네요.
-6, @M4XiMUEL님멍멍이 보다 불났는지 접속 해볼듯하네요
-7, 다음 업글시에는 중고판매는 하지마라는 뉴스인가요 ㄷ ㄷ ㄷ
-8, 구세대폰 활용방법 지원이네요yo
-9, 아이폰이 반려동물 보겠다고 움직이고 있으면.. 와서 뭐냐고 물어 뜯지 않을까요? 괜스레 아이폰에 스탠드까지 작살나는 상황이 벌어질지도..?
-10, @케이건.님 ???: 오히려좋아?!(예전폰 중고폰으로 팔지 말라는 관점에서 흥미로운 제품이라 생각하는 바입니다.)
-11, 중고폰 소비용 일까요?잘나가는 회사의 가장 큰 라이벌은 자사의 중고라더군요.
-12, 냥냥펀치한번 맞아보쉴?
-13, @매를버러님 ㅋㅋㅋㅋ
-14, 나름의 업사이클링이군요.삼성도 구형기종들로 스마트싱스에서 활용 가능한데 홈킷으로 다양하게 활용하게 해주면 좋을 듯 합니다.
-15, 이거랑 비슷하네요
-16, 판사님, 그 댓글은 제가 아니라 제 고양이가 썼습니다. 가 드디어 가능해졌군요.ㅎㅎ</t>
-        </is>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/python/python_infurun_잔재코딩/project/게시글_크롤링_결과.xlsx
+++ b/python/python_infurun_잔재코딩/project/게시글_크롤링_결과.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zxcc9\OneDrive\바탕 화면\Study\Python\python\python_infurun_잔재코딩\project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6576C1-FF2D-4F54-A6BF-E583A2D18C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37360" yWindow="1040" windowWidth="28800" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="게시글" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="게시글"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -29,6 +23,12 @@
   </si>
   <si>
     <t>댓글</t>
+  </si>
+  <si>
+    <t>KT, MS 투인원 랩톱 '서피스 프로9 5G' 단독 출시</t>
+  </si>
+  <si>
+    <t>1. 국내통신사 + 5G 두개의 단어만 합쳐지면 왜 다 같지않아 보일까용??</t>
   </si>
   <si>
     <t>NIO, 차량가격 인하 및 배터리스왑 옵션으로 분리</t>
@@ -49,7 +49,7 @@
 6. 220만원 진짜 싸게나왔네요 ㄷㄷ못해도 300만은 넘을 줄 알았는데사용기들 보고 반년뒤쯤에 사야겠네요</t>
   </si>
   <si>
-    <t>'애플, M3 15인치 맥북에어 개발…내년 출시'</t>
+    <t>애플, M3 15인치 맥북에어 개발…내년 출시'</t>
   </si>
   <si>
     <t>1. 올 가을에 나오면 사려고 했는데 내년에 나온다면 지금 바로 M2 모델을 구입하는 게 현명한 선택이겠군요.
@@ -107,51 +107,60 @@
 15. 이거랑 비슷하네요
 16. 판사님, 그 댓글은 제가 아니라 제 고양이가 썼습니다. 가 드디어 가능해졌군요.ㅎㅎ</t>
   </si>
-  <si>
-    <t>1. 국내통신사 + 5G 두개의 단어만 합쳐지면 왜 다 같지않아 보일까용??</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KT, MS 투인원 랩톱 '서피스 프로9 5G' 단독 출시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="14"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0000ff"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFffff00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -159,27 +168,75 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFffff00"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFffff00"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFffff00"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFffff00"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+  <cellXfs count="9">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -190,10 +247,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -231,69 +288,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -317,54 +376,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -374,7 +432,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -383,7 +441,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -392,7 +450,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -400,10 +458,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -432,7 +490,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -445,13 +503,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -469,110 +526,110 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="100" customWidth="1"/>
+    <col min="1" max="1" style="7" width="50.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="100.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="27.75" customFormat="1" s="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="23.25">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="34.5">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="92.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="106.5">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="120.75">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="120.75">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="237">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>